--- a/public/bulkfile/uploads/file/testm.xlsx
+++ b/public/bulkfile/uploads/file/testm.xlsx
@@ -19,6 +19,17 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t xml:space="preserve">memberno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">amount</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
@@ -29,6 +40,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -88,8 +100,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -110,28 +126,148 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="n">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
         <v>111111</v>
       </c>
-      <c r="B1" s="0" t="n">
+      <c r="B2" s="1" t="n">
         <v>5000</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
         <v>222222</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <v>5000</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>222223</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>5001</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>222224</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>5002</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>222225</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>5003</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>222226</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>5004</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>222227</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>5005</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>222228</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>5006</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>222229</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>5007</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>222230</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>5008</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>222231</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>5009</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>222232</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>5010</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>222233</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>5011</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
+        <v>222234</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>5012</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
+        <v>222235</v>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>5013</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
+        <v>222236</v>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>5014</v>
       </c>
     </row>
   </sheetData>
